--- a/output/LEGACY_33150614000109.xlsx
+++ b/output/LEGACY_33150614000109.xlsx
@@ -603,10 +603,10 @@
         <v>44165</v>
       </c>
       <c r="B20">
-        <v>0.1764899</v>
+        <v>0.1780062</v>
       </c>
       <c r="C20">
-        <v>0.0227886038202807</v>
+        <v>0.02410680838792967</v>
       </c>
     </row>
   </sheetData>

--- a/output/LEGACY_33150614000109.xlsx
+++ b/output/LEGACY_33150614000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LEGACY CAPITAL P FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,227 +383,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43616</v>
       </c>
       <c r="B2">
-        <v>0.003728500000000023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43646</v>
       </c>
       <c r="B3">
-        <v>0.03648270000000009</v>
-      </c>
-      <c r="C3">
         <v>0.03263252961333674</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43677</v>
       </c>
       <c r="B4">
-        <v>0.0507067000000001</v>
-      </c>
-      <c r="C4">
         <v>0.01372333566204231</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43708</v>
       </c>
       <c r="B5">
-        <v>0.05640500000000004</v>
-      </c>
-      <c r="C5">
         <v>0.005423302240292083</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43738</v>
       </c>
       <c r="B6">
-        <v>0.06379760000000001</v>
-      </c>
-      <c r="C6">
         <v>0.006997884334133175</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43769</v>
       </c>
       <c r="B7">
-        <v>0.07936910000000008</v>
-      </c>
-      <c r="C7">
         <v>0.0146376528768255</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43799</v>
       </c>
       <c r="B8">
-        <v>0.05322789999999999</v>
-      </c>
-      <c r="C8">
         <v>-0.02421896272554036</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43830</v>
       </c>
       <c r="B9">
-        <v>0.09011490000000011</v>
-      </c>
-      <c r="C9">
         <v>0.03502280940335911</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43861</v>
       </c>
       <c r="B10">
-        <v>0.08588010000000001</v>
-      </c>
-      <c r="C10">
         <v>-0.003884728114440184</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43890</v>
       </c>
       <c r="B11">
-        <v>0.08102940000000003</v>
-      </c>
-      <c r="C11">
         <v>-0.004467067772952138</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43921</v>
       </c>
       <c r="B12">
-        <v>0.03785409999999989</v>
-      </c>
-      <c r="C12">
         <v>-0.03993906178684881</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43951</v>
       </c>
       <c r="B13">
-        <v>0.0719555999999999</v>
-      </c>
-      <c r="C13">
         <v>0.03285770128961296</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43982</v>
       </c>
       <c r="B14">
-        <v>0.1088534000000001</v>
-      </c>
-      <c r="C14">
         <v>0.03442101519876406</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44012</v>
       </c>
       <c r="B15">
-        <v>0.1189247</v>
-      </c>
-      <c r="C15">
         <v>0.009082625349753126</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44043</v>
       </c>
       <c r="B16">
-        <v>0.1656346</v>
-      </c>
-      <c r="C16">
         <v>0.041745347117639</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44074</v>
       </c>
       <c r="B17">
-        <v>0.1598649000000001</v>
-      </c>
-      <c r="C17">
         <v>-0.004949835909126121</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44104</v>
       </c>
       <c r="B18">
-        <v>0.1418813000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.0155049092355497</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>44135</v>
       </c>
       <c r="B19">
-        <v>0.1502767</v>
-      </c>
-      <c r="C19">
         <v>0.007352252812967475</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>44165</v>
       </c>
       <c r="B20">
-        <v>0.1780062</v>
-      </c>
-      <c r="C20">
-        <v>0.02410680838792967</v>
+        <v>0.02201531162023884</v>
       </c>
     </row>
   </sheetData>
